--- a/evaluation_results_variation.xlsx
+++ b/evaluation_results_variation.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'query': 'Can you explain what HIV is?', 'result': 'HIV is a virus that attacks the immune system, specifically the CD4 cells (T cells) that help the body fight infections. If left untreated, HIV can weaken the immune system over time and lead to AIDS (Acquired Immunodeficiency Syndrome). HIV is diagnosed through blood or saliva tests, looking for antibodies to the virus.'}</t>
+          <t>{'query': 'Can you explain what HIV is?', 'result': 'HIV is a virus that attacks the immune system, specifically the CD4 cells, which help the body fight infections. If left untreated, HIV can weaken the immune system over time and lead to AIDS. HIV is diagnosed through blood or saliva tests, looking for antibodies to the virus.'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9791451986208033</v>
+        <v>0.8262269980964184</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'query': 'In what way does HIV impact the human immune system?', 'result': 'HIV impacts the human immune system by targeting CD4 cells, also known as T cells, which help the body fight infections. The virus enters these cells, uses them to make more copies of itself, and then destroys them, weakening the immune system over time. If left untreated, HIV can lead to AIDS, where the immune system is badly damaged, making the body vulnerable to opportunistic infections and certain cancers.'}</t>
+          <t>{'query': 'In what way does HIV impact the human immune system?', 'result': 'HIV impacts the human immune system by targeting CD4 cells, also known as T cells, which help the body fight infections. The virus enters these cells, replicates, and destroys them over time, weakening the immune system. If left untreated, HIV can lead to AIDS, where the immune system is severely damaged, making the body vulnerable to infections and certain cancers.'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -557,7 +557,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9866801968650853</v>
+        <v>0.888186146658515</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'query': 'What phases are involved in HIV infection?', 'result': 'There are three stages of HIV infection: Acute HIV Infection, Chronic HIV Infection (clinical latency), and AIDS. Acute HIV Infection occurs 2-4 weeks after getting the virus, while AIDS is the final stage where the immune system is severely damaged. HIV is a virus that attacks the immune system, while AIDS is the most severe stage of HIV infection where the body becomes vulnerable to infections and cancers.'}</t>
+          <t>{'query': 'What phases are involved in HIV infection?', 'result': 'There are three stages of HIV infection: Acute HIV Infection, Chronic HIV Infection, and AIDS. Acute HIV Infection occurs 2-4 weeks after getting the virus, while Chronic HIV Infection is when the virus is still active but reproduces at low levels. AIDS is the final stage where the immune system is badly damaged.'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -637,7 +637,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6386760095049417</v>
+        <v>0.6092290921450679</v>
       </c>
     </row>
     <row r="6">
@@ -650,8 +650,8 @@
         <is>
           <t>['protection."        }, "Eligibility_for_PrEP": { "question": "Who is eligible for PrEP?", "answer": "PrEP is recommended for individuals having a greater likelihood of HIV exposure, including those with an HIV-positive partner, multiple sexual partners without consistent condom use, men who have sex with men (MSM), people who inject drugs and share needles, individuals who have recently had an STI, and those engaged in commercial sex work. If privacy or stigma is a concern, healthcare providers'
  'reduce the risk of transmission. Combining these strategies offers the best protection."        }    }, "PrEP_Basics": { "What_is_PrEP": { "question": "What is PrEP?", "answer": "PrEP, or Pre-Exposure Prophylaxis, is a preventive treatment for people who do not have HIV but are more likely to have HIV exposure. PrEP involves taking a medication that helps prevent the virus from establishing an infection if you are exposed to it."        }, "How_does_PrEP_work": { "question": "How does PrEP'
- 'overall health and side effects. Regular testing ensures PrEP is working and helps catch any health issues early."        }    }, "Different Forms of PrEP": { "Types_of_PrEP_medications": { "question": "What are the different types of PrEP medications?", "answer": "There are three main types of PrEP medications: Truvada is a daily pill containing tenofovir and emtricitabine, effective for people at high risk of HIV through sex or injection drug use. Descovy is also a daily pill with tenofovir'
- 'administered every two months, is highly effective, and event-driven PrEP (2-1-1 dosing) is effective for men who have sex with men. PrEP is also safe and effective for adolescents, young adults, and women, with more studies ongoing. Combining PrEP with other prevention methods and helping patients stick to their treatment is important, as is reducing stigma and barriers for better access and use."        }, "How_can_PrEP_users_protect_against_STIs": { "question": "How can PrEP users protect']</t>
+ 'administered every two months, is highly effective, and event-driven PrEP (2-1-1 dosing) is effective for men who have sex with men. PrEP is also safe and effective for adolescents, young adults, and women, with more studies ongoing. Combining PrEP with other prevention methods and helping patients stick to their treatment is important, as is reducing stigma and barriers for better access and use."        }, "How_can_PrEP_users_protect_against_STIs": { "question": "How can PrEP users protect'
+ 'overall health and side effects. Regular testing ensures PrEP is working and helps catch any health issues early."        }    }, "Different Forms of PrEP": { "Types_of_PrEP_medications": { "question": "What are the different types of PrEP medications?", "answer": "There are three main types of PrEP medications: Truvada is a daily pill containing tenofovir and emtricitabine, effective for people at high risk of HIV through sex or injection drug use. Descovy is also a daily pill with tenofovir']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.499999999975</v>
+        <v>0.5833333333041666</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999994959270433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>0.2403990363639738</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'query': "How should I handle it if my family discovers I'm on PrEP?", 'result': "If your family discovers you're on PrEP, stay calm and explain that it's a medication to prevent HIV.\\nAddress their concerns by being ready to answer questions and provide information.\\nConsider having a supportive person with you during the conversation and provide resources for them to learn more about PrEP."}</t>
+          <t>{'query': "How should I handle it if my family discovers I'm on PrEP?", 'result': "If your family discovers you're on PrEP, stay calm and explain that it's a medication to prevent HIV. Address their concerns and provide information, seeking support if needed. Choose a calm, private moment for the conversation and be ready to answer their questions."}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -750,14 +750,12 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>0.9999999999999997</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7996873281104383</v>
+        <v>0.2373019489762593</v>
       </c>
     </row>
     <row r="9">
